--- a/SavedImages/OptimizeResults_nfe_100000/DataResults_withoutSc3/data/robustness_results/overall_scores.xlsx
+++ b/SavedImages/OptimizeResults_nfe_100000/DataResults_withoutSc3/data/robustness_results/overall_scores.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.571</v>
+        <v>0.62</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>0.851</v>
       </c>
       <c r="E2" t="n">
-        <v>0.153</v>
+        <v>0.346</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.42</v>
+        <v>0.538</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>0.913</v>
       </c>
       <c r="K2" t="n">
-        <v>0.53</v>
+        <v>0.717</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0.999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.834</v>
+        <v>0.84</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125</v>
+        <v>0.37</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.315</v>
+        <v>0.446</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.733</v>
+        <v>0.857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.724</v>
+        <v>0.763</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.571</v>
+        <v>0.62</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.118</v>
+        <v>0.17</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.297</v>
+        <v>0.324</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>0.835</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.651</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.717</v>
+        <v>0.737</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
